--- a/travellerskill.xlsx
+++ b/travellerskill.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,11 +146,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1401</t>
+    <t>1200,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1401,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +537,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -555,8 +563,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>1200</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -567,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -577,8 +585,8 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>1001</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -589,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/travellerskill.xlsx
+++ b/travellerskill.xlsx
@@ -21,6 +21,111 @@
     <author>王朋</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">体力
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">防御、
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>治疗</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B1" authorId="0">
       <text>
         <r>
@@ -130,22 +235,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1201,1202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1201,1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1201,1203</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1201,1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1200,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,11 +247,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1401,</t>
+    <t>1401,1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006,1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1605,1607</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +642,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -561,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -572,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -583,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,10 +699,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
